--- a/ME_Attendance_August_2022.xlsx
+++ b/ME_Attendance_August_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAHIM BHUTTO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE21A6F-6119-49A0-8435-0AD507017709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94671EE-5EE8-4D4B-88A0-999F03F8922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{74301BBB-4F6E-40FD-AE03-D826829080A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74301BBB-4F6E-40FD-AE03-D826829080A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>ROLL NO</t>
   </si>
@@ -210,13 +210,55 @@
   </si>
   <si>
     <t xml:space="preserve">Power System Analysis and Design  (4th Semester Electrical)    EE-501                MONTH: AUGUST </t>
+  </si>
+  <si>
+    <t>27/8/2022</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>22ME22</t>
+  </si>
+  <si>
+    <t>21ME13</t>
+  </si>
+  <si>
+    <t>21ME18</t>
+  </si>
+  <si>
+    <t>20ME24</t>
+  </si>
+  <si>
+    <t>20ME36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,16 +296,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -324,11 +380,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -340,13 +405,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -394,6 +453,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -710,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13E3BE2-188C-4A82-A5CD-8F967CE20536}">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +801,7 @@
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="5" customWidth="1"/>
     <col min="11" max="11" width="6.28515625" style="4" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" style="4" customWidth="1"/>
     <col min="13" max="19" width="6.140625" style="4" customWidth="1"/>
@@ -736,163 +810,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
     </row>
     <row r="3" spans="1:21" ht="164.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="12" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
+      <c r="E4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="15">
+        <v>44629</v>
+      </c>
+      <c r="G4" s="15">
+        <v>44843</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -906,22 +988,24 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="11"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -935,22 +1019,24 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="11"/>
+      <c r="U6" s="9"/>
     </row>
     <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -964,22 +1050,28 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="11"/>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -993,22 +1085,24 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="11"/>
+      <c r="U8" s="9"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1022,22 +1116,28 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="11"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1051,22 +1151,24 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="11"/>
+      <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1080,22 +1182,28 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="11"/>
+      <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1109,22 +1217,24 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="11"/>
+      <c r="U12" s="9"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1138,22 +1248,28 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="11"/>
+      <c r="U13" s="9"/>
     </row>
     <row r="14" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1167,22 +1283,24 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="11"/>
+      <c r="U14" s="9"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1196,22 +1314,28 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="11"/>
+      <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1225,22 +1349,24 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="11"/>
+      <c r="U16" s="9"/>
     </row>
     <row r="17" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1254,22 +1380,28 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="11"/>
+      <c r="U17" s="9"/>
     </row>
     <row r="18" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="E18" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1283,22 +1415,24 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="11"/>
+      <c r="U18" s="9"/>
     </row>
     <row r="19" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="3">
         <v>0</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1312,22 +1446,28 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="11"/>
+      <c r="U19" s="9"/>
     </row>
     <row r="20" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1341,22 +1481,24 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="11"/>
+      <c r="U20" s="9"/>
     </row>
     <row r="21" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1370,22 +1512,28 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="11"/>
+      <c r="U21" s="9"/>
     </row>
     <row r="22" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="E22" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1399,22 +1547,24 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="11"/>
+      <c r="U22" s="9"/>
     </row>
     <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1428,22 +1578,28 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="11"/>
+      <c r="U23" s="9"/>
     </row>
     <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="E24" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1457,22 +1613,26 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="11"/>
+      <c r="U24" s="9"/>
     </row>
     <row r="25" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>21</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="10"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="3">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1486,22 +1646,24 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="11"/>
+      <c r="U25" s="9"/>
     </row>
     <row r="26" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>22</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="10"/>
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1515,22 +1677,28 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="11"/>
+      <c r="U26" s="9"/>
     </row>
     <row r="27" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>25</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="10"/>
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1544,22 +1712,24 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="11"/>
+      <c r="U27" s="9"/>
     </row>
     <row r="28" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>26</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="10"/>
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1573,22 +1743,28 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="11"/>
+      <c r="U28" s="9"/>
     </row>
     <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="10"/>
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="3">
         <v>3</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="E29" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1602,22 +1778,24 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="11"/>
+      <c r="U29" s="9"/>
     </row>
     <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="10"/>
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="8"/>
       <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="3">
+        <v>3</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1631,22 +1809,28 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="11"/>
+      <c r="U30" s="9"/>
     </row>
     <row r="31" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="10"/>
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="3">
         <v>3</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="E31" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1660,22 +1844,24 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="11"/>
+      <c r="U31" s="9"/>
     </row>
     <row r="32" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>35</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="10"/>
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="3">
+        <v>3</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -1689,22 +1875,26 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="11"/>
+      <c r="U32" s="9"/>
     </row>
     <row r="33" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>36</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="10"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="3">
         <v>3</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="E33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -1718,22 +1908,24 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="11"/>
+      <c r="U33" s="9"/>
     </row>
     <row r="34" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>41</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="10"/>
+      <c r="A34" s="6">
+        <v>35</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="3">
         <v>3</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="3">
+        <v>3</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -1747,22 +1939,28 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="11"/>
+      <c r="U34" s="9"/>
     </row>
     <row r="35" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>55</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="10"/>
+      <c r="A35" s="6">
+        <v>36</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="8"/>
       <c r="D35" s="3">
         <v>3</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="E35" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -1776,22 +1974,22 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="11"/>
+      <c r="U35" s="9"/>
     </row>
     <row r="36" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>56</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="10"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="3">
         <v>3</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="3">
+        <v>3</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -1805,236 +2003,211 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="11"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>41</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="9"/>
+    </row>
+    <row r="38" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="3">
+        <v>3</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="9"/>
+    </row>
+    <row r="39" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>55</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="3">
+        <v>3</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="9"/>
+    </row>
+    <row r="40" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>56</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>56</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="9"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="2">
-        <f>SUM(D5:D36)/3</f>
-        <v>20</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="U37" s="2"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="2">
+        <f>SUM(D5:D41)/3</f>
+        <v>22</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="U42" s="2"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A42:C42"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:C3"/>

--- a/ME_Attendance_August_2022.xlsx
+++ b/ME_Attendance_August_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAHIM BHUTTO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94671EE-5EE8-4D4B-88A0-999F03F8922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D519CA9-0840-4D78-9E5E-3B5BDC50FEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74301BBB-4F6E-40FD-AE03-D826829080A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{74301BBB-4F6E-40FD-AE03-D826829080A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>16_WEEK</t>
   </si>
   <si>
-    <t xml:space="preserve">Power System Analysis and Design  (4th Semester Electrical)    EE-501                MONTH: AUGUST </t>
-  </si>
-  <si>
     <t>27/8/2022</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>20ME36</t>
+  </si>
+  <si>
+    <t>Power System Analysis and Design  (4th Semester Electrical)    EE-501                MONTH: AUGUST -September</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -405,7 +405,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -421,9 +420,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -436,38 +432,26 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -784,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13E3BE2-188C-4A82-A5CD-8F967CE20536}">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +785,7 @@
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" customWidth="1"/>
     <col min="11" max="11" width="6.28515625" style="4" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" style="4" customWidth="1"/>
     <col min="13" max="19" width="6.140625" style="4" customWidth="1"/>
@@ -810,172 +794,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+    </row>
+    <row r="3" spans="1:21" ht="164.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-    </row>
-    <row r="3" spans="1:21" ht="164.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="F4" s="13">
+        <v>44629</v>
+      </c>
+      <c r="G4" s="13">
+        <v>44843</v>
+      </c>
+      <c r="H4" s="13">
+        <v>44843</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="15">
-        <v>44629</v>
-      </c>
-      <c r="G4" s="15">
-        <v>44843</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-    </row>
-    <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -988,25 +976,27 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="9"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1019,25 +1009,27 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="9"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1050,29 +1042,31 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="9"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>60</v>
+      <c r="E8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1085,25 +1079,27 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="9"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="3">
         <v>3</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1116,29 +1112,31 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="9"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>61</v>
+      <c r="E10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="G10" s="3">
         <v>3</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1151,25 +1149,27 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="9"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1182,29 +1182,31 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="9"/>
+      <c r="U11" s="8"/>
     </row>
     <row r="12" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>62</v>
+      <c r="E12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1217,25 +1219,27 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="9"/>
+      <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1248,29 +1252,31 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="9"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>63</v>
+      <c r="E14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>3</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1283,25 +1289,27 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="9"/>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1314,29 +1322,31 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="9"/>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>64</v>
+      <c r="E16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1349,25 +1359,27 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="9"/>
+      <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1380,29 +1392,31 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="9"/>
+      <c r="U17" s="8"/>
     </row>
     <row r="18" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>65</v>
+      <c r="E18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="G18" s="3">
         <v>3</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1415,25 +1429,27 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="9"/>
+      <c r="U18" s="8"/>
     </row>
     <row r="19" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="3">
         <v>0</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1446,29 +1462,31 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="9"/>
+      <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>66</v>
+      <c r="E20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1481,25 +1499,27 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="9"/>
+      <c r="U20" s="8"/>
     </row>
     <row r="21" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="3">
         <v>3</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <v>3</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1512,29 +1532,31 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="9"/>
+      <c r="U21" s="8"/>
     </row>
     <row r="22" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>61</v>
+      <c r="E22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1547,25 +1569,27 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="9"/>
+      <c r="U22" s="8"/>
     </row>
     <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1578,29 +1602,31 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="9"/>
+      <c r="U23" s="8"/>
     </row>
     <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>65</v>
+      <c r="E24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1613,27 +1639,29 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="9"/>
+      <c r="U24" s="8"/>
     </row>
     <row r="25" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="3">
         <v>0</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>65</v>
+      <c r="E25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="G25" s="3">
         <v>3</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1646,25 +1674,27 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="9"/>
+      <c r="U25" s="8"/>
     </row>
     <row r="26" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>21</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3">
+        <v>3</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1677,29 +1707,31 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="9"/>
+      <c r="U26" s="8"/>
     </row>
     <row r="27" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>22</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>67</v>
+      <c r="E27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1712,25 +1744,27 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="9"/>
+      <c r="U27" s="8"/>
     </row>
     <row r="28" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="3">
         <v>3</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1743,29 +1777,31 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="9"/>
+      <c r="U28" s="8"/>
     </row>
     <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="3">
         <v>3</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>63</v>
+      <c r="E29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -1778,25 +1814,27 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="9"/>
+      <c r="U29" s="8"/>
     </row>
     <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="3">
         <v>3</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="3">
+        <v>3</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1809,29 +1847,31 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="9"/>
+      <c r="U30" s="8"/>
     </row>
     <row r="31" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="3">
         <v>3</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>61</v>
+      <c r="E31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1844,25 +1884,27 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="9"/>
+      <c r="U31" s="8"/>
     </row>
     <row r="32" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3">
+        <v>3</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -1875,27 +1917,29 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="9"/>
+      <c r="U32" s="8"/>
     </row>
     <row r="33" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="8"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="7"/>
       <c r="D33" s="3">
         <v>3</v>
       </c>
-      <c r="E33" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>62</v>
+      <c r="E33" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1908,25 +1952,27 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="9"/>
+      <c r="U33" s="8"/>
     </row>
     <row r="34" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>35</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="3">
         <v>3</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="3">
         <v>3</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3">
+        <v>3</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -1939,29 +1985,31 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="9"/>
+      <c r="U34" s="8"/>
     </row>
     <row r="35" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>36</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="3">
         <v>3</v>
       </c>
-      <c r="E35" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>63</v>
+      <c r="E35" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="G35" s="3">
         <v>3</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3">
+        <v>3</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -1974,23 +2022,25 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="9"/>
+      <c r="U35" s="8"/>
     </row>
     <row r="36" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="8"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="3">
         <v>3</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="3">
         <v>3</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3">
+        <v>3</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2003,29 +2053,31 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="9"/>
+      <c r="U36" s="8"/>
     </row>
     <row r="37" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>41</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="3">
         <v>3</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>64</v>
+      <c r="E37" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="G37" s="3">
         <v>3</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3">
+        <v>3</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2038,23 +2090,25 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="9"/>
+      <c r="U37" s="8"/>
     </row>
     <row r="38" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="8"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="3">
         <v>0</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="3">
         <v>3</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2067,29 +2121,31 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="9"/>
+      <c r="U38" s="8"/>
     </row>
     <row r="39" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>55</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="3">
         <v>3</v>
       </c>
-      <c r="E39" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>65</v>
+      <c r="E39" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="G39" s="3">
         <v>3</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2102,25 +2158,27 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="9"/>
+      <c r="U39" s="8"/>
     </row>
     <row r="40" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>56</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="3">
         <v>3</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="3">
         <v>0</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2133,29 +2191,31 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="9"/>
+      <c r="U40" s="8"/>
     </row>
     <row r="41" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>56</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="8"/>
+      <c r="B41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>66</v>
+      <c r="E41" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="G41" s="3">
         <v>3</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2168,24 +2228,36 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-      <c r="U41" s="9"/>
+      <c r="U41" s="8"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="2">
         <f>SUM(D5:D41)/3</f>
         <v>22</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42:H42" si="0">SUM(E5:E41)/3</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -2196,14 +2268,6 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/ME_Attendance_August_2022.xlsx
+++ b/ME_Attendance_August_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAHIM BHUTTO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D519CA9-0840-4D78-9E5E-3B5BDC50FEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5974159C-DADD-4C02-BDC2-BD9E6341F65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{74301BBB-4F6E-40FD-AE03-D826829080A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74301BBB-4F6E-40FD-AE03-D826829080A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>ROLL NO</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>Power System Analysis and Design  (4th Semester Electrical)    EE-501                MONTH: AUGUST -September</t>
+  </si>
+  <si>
+    <t>17/9/2022</t>
+  </si>
+  <si>
+    <t>24/9/2022</t>
   </si>
 </sst>
 </file>
@@ -770,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13E3BE2-188C-4A82-A5CD-8F967CE20536}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,10 +934,12 @@
       <c r="G4" s="13">
         <v>44843</v>
       </c>
-      <c r="H4" s="13">
-        <v>44843</v>
-      </c>
-      <c r="I4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -946,9 +954,7 @@
       <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
@@ -964,7 +970,9 @@
       <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -979,9 +987,7 @@
       <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
@@ -997,7 +1003,9 @@
       <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1012,9 +1020,7 @@
       <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1030,7 +1036,9 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1045,9 +1053,7 @@
       <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1073,9 @@
       <c r="H8" s="3">
         <v>3</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1082,9 +1090,7 @@
       <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1100,7 +1106,9 @@
       <c r="H9" s="3">
         <v>3</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>3</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1115,9 +1123,7 @@
       <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1137,7 +1143,9 @@
       <c r="H10" s="3">
         <v>3</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1152,9 +1160,7 @@
       <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1176,9 @@
       <c r="H11" s="3">
         <v>3</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>3</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1185,9 +1193,7 @@
       <c r="U11" s="8"/>
     </row>
     <row r="12" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>8</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1207,7 +1213,9 @@
       <c r="H12" s="3">
         <v>3</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1222,9 +1230,7 @@
       <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>9</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1240,7 +1246,9 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1255,9 +1263,7 @@
       <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1277,7 +1283,9 @@
       <c r="H14" s="3">
         <v>3</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1292,9 +1300,7 @@
       <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
@@ -1310,7 +1316,9 @@
       <c r="H15" s="3">
         <v>3</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1325,9 +1333,7 @@
       <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>12</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1347,7 +1353,9 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1362,9 +1370,7 @@
       <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>13</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
@@ -1380,7 +1386,9 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1395,9 +1403,7 @@
       <c r="U17" s="8"/>
     </row>
     <row r="18" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>14</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
@@ -1417,7 +1423,9 @@
       <c r="H18" s="3">
         <v>3</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1432,9 +1440,7 @@
       <c r="U18" s="8"/>
     </row>
     <row r="19" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>15</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1450,7 +1456,9 @@
       <c r="H19" s="3">
         <v>3</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1465,9 +1473,7 @@
       <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>16</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
@@ -1487,7 +1493,9 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1502,9 +1510,7 @@
       <c r="U20" s="8"/>
     </row>
     <row r="21" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>17</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
@@ -1520,7 +1526,9 @@
       <c r="H21" s="3">
         <v>3</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1535,9 +1543,7 @@
       <c r="U21" s="8"/>
     </row>
     <row r="22" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>18</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
@@ -1557,7 +1563,9 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1572,9 +1580,7 @@
       <c r="U22" s="8"/>
     </row>
     <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>19</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -1590,7 +1596,9 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1605,9 +1613,7 @@
       <c r="U23" s="8"/>
     </row>
     <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>20</v>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
@@ -1627,7 +1633,9 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1662,7 +1670,9 @@
       <c r="H25" s="3">
         <v>0</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -1677,9 +1687,7 @@
       <c r="U25" s="8"/>
     </row>
     <row r="26" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>21</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
@@ -1695,7 +1703,9 @@
       <c r="H26" s="3">
         <v>3</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1710,9 +1720,7 @@
       <c r="U26" s="8"/>
     </row>
     <row r="27" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>22</v>
-      </c>
+      <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
@@ -1732,7 +1740,9 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1747,9 +1757,7 @@
       <c r="U27" s="8"/>
     </row>
     <row r="28" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>25</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
@@ -1765,7 +1773,9 @@
       <c r="H28" s="3">
         <v>0</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -1780,9 +1790,7 @@
       <c r="U28" s="8"/>
     </row>
     <row r="29" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>26</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
@@ -1802,7 +1810,9 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -1817,9 +1827,7 @@
       <c r="U29" s="8"/>
     </row>
     <row r="30" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>28</v>
-      </c>
+      <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
@@ -1835,7 +1843,9 @@
       <c r="H30" s="3">
         <v>3</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -1850,9 +1860,7 @@
       <c r="U30" s="8"/>
     </row>
     <row r="31" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>29</v>
-      </c>
+      <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>35</v>
       </c>
@@ -1872,7 +1880,9 @@
       <c r="H31" s="3">
         <v>0</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -1887,9 +1897,7 @@
       <c r="U31" s="8"/>
     </row>
     <row r="32" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>30</v>
-      </c>
+      <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
@@ -1905,7 +1913,9 @@
       <c r="H32" s="3">
         <v>3</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3">
+        <v>3</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1940,7 +1950,9 @@
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -1955,9 +1967,7 @@
       <c r="U33" s="8"/>
     </row>
     <row r="34" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>35</v>
-      </c>
+      <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>37</v>
       </c>
@@ -1973,7 +1983,9 @@
       <c r="H34" s="3">
         <v>3</v>
       </c>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3">
+        <v>3</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -1988,9 +2000,7 @@
       <c r="U34" s="8"/>
     </row>
     <row r="35" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>36</v>
-      </c>
+      <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
@@ -2010,7 +2020,9 @@
       <c r="H35" s="3">
         <v>3</v>
       </c>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3">
+        <v>3</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2041,7 +2053,9 @@
       <c r="H36" s="3">
         <v>3</v>
       </c>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3">
+        <v>3</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2056,9 +2070,7 @@
       <c r="U36" s="8"/>
     </row>
     <row r="37" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>41</v>
-      </c>
+      <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
         <v>39</v>
       </c>
@@ -2078,7 +2090,9 @@
       <c r="H37" s="3">
         <v>3</v>
       </c>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3">
+        <v>3</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2109,7 +2123,9 @@
       <c r="H38" s="3">
         <v>0</v>
       </c>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3">
+        <v>3</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2124,9 +2140,7 @@
       <c r="U38" s="8"/>
     </row>
     <row r="39" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>55</v>
-      </c>
+      <c r="A39" s="5"/>
       <c r="B39" s="6" t="s">
         <v>41</v>
       </c>
@@ -2146,7 +2160,9 @@
       <c r="H39" s="3">
         <v>0</v>
       </c>
-      <c r="I39" s="3"/>
+      <c r="I39" s="3">
+        <v>3</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2161,9 +2177,7 @@
       <c r="U39" s="8"/>
     </row>
     <row r="40" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>56</v>
-      </c>
+      <c r="A40" s="5"/>
       <c r="B40" s="6" t="s">
         <v>40</v>
       </c>
@@ -2179,7 +2193,9 @@
       <c r="H40" s="3">
         <v>0</v>
       </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2194,9 +2210,7 @@
       <c r="U40" s="8"/>
     </row>
     <row r="41" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>56</v>
-      </c>
+      <c r="A41" s="5"/>
       <c r="B41" s="6" t="s">
         <v>71</v>
       </c>
@@ -2216,7 +2230,9 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3"/>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2241,7 +2257,7 @@
         <v>22</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" ref="E42:H42" si="0">SUM(E5:E41)/3</f>
+        <f t="shared" ref="E42:I42" si="0">SUM(E5:E41)/3</f>
         <v>0</v>
       </c>
       <c r="F42" s="2">
@@ -2256,7 +2272,10 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I42" s="2"/>
+      <c r="I42" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>

--- a/ME_Attendance_August_2022.xlsx
+++ b/ME_Attendance_August_2022.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5974159C-DADD-4C02-BDC2-BD9E6341F65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74301BBB-4F6E-40FD-AE03-D826829080A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>ROLL NO</t>
   </si>
@@ -263,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -773,11 +772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13E3BE2-188C-4A82-A5CD-8F967CE20536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +939,9 @@
       <c r="I4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -973,7 +974,9 @@
       <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1006,7 +1009,9 @@
       <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1039,7 +1044,9 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1076,7 +1083,9 @@
       <c r="I8" s="3">
         <v>3</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>3</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1109,7 +1118,9 @@
       <c r="I9" s="3">
         <v>3</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1146,7 +1157,9 @@
       <c r="I10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1179,7 +1192,9 @@
       <c r="I11" s="3">
         <v>3</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1216,7 +1231,9 @@
       <c r="I12" s="3">
         <v>3</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1249,7 +1266,9 @@
       <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1286,7 +1305,9 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1319,7 +1340,9 @@
       <c r="I15" s="3">
         <v>3</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1356,7 +1379,9 @@
       <c r="I16" s="3">
         <v>0</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1389,7 +1414,9 @@
       <c r="I17" s="3">
         <v>3</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1426,7 +1453,9 @@
       <c r="I18" s="3">
         <v>3</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1459,7 +1488,9 @@
       <c r="I19" s="3">
         <v>3</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3">
+        <v>3</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1496,7 +1527,9 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1529,7 +1562,9 @@
       <c r="I21" s="3">
         <v>3</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1566,7 +1601,9 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3"/>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -1599,7 +1636,9 @@
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1636,7 +1675,9 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1673,7 +1714,9 @@
       <c r="I25" s="3">
         <v>0</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1706,7 +1749,9 @@
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1743,7 +1788,9 @@
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1776,7 +1823,9 @@
       <c r="I28" s="3">
         <v>0</v>
       </c>
-      <c r="J28" s="3"/>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1813,7 +1862,9 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1846,7 +1897,9 @@
       <c r="I30" s="3">
         <v>0</v>
       </c>
-      <c r="J30" s="3"/>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1883,7 +1936,9 @@
       <c r="I31" s="3">
         <v>0</v>
       </c>
-      <c r="J31" s="3"/>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1916,7 +1971,9 @@
       <c r="I32" s="3">
         <v>3</v>
       </c>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1953,7 +2010,9 @@
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3"/>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -1986,7 +2045,9 @@
       <c r="I34" s="3">
         <v>3</v>
       </c>
-      <c r="J34" s="3"/>
+      <c r="J34" s="3">
+        <v>3</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -2023,7 +2084,9 @@
       <c r="I35" s="3">
         <v>3</v>
       </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -2056,7 +2119,9 @@
       <c r="I36" s="3">
         <v>3</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2093,7 +2158,9 @@
       <c r="I37" s="3">
         <v>3</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -2126,7 +2193,9 @@
       <c r="I38" s="3">
         <v>3</v>
       </c>
-      <c r="J38" s="3"/>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -2163,7 +2232,9 @@
       <c r="I39" s="3">
         <v>3</v>
       </c>
-      <c r="J39" s="3"/>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -2196,7 +2267,9 @@
       <c r="I40" s="3">
         <v>0</v>
       </c>
-      <c r="J40" s="3"/>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -2233,7 +2306,9 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3"/>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
